--- a/results_cloud_benchmark.xlsx
+++ b/results_cloud_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stend\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A8EAC67-8FC2-4785-8D34-D835D6BFA6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B220F40-08BB-4D03-9BB8-6D88066A7465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1110" windowWidth="26925" windowHeight="12855" xr2:uid="{C1BF1E84-95D8-49F7-8385-5ABE16272A03}"/>
+    <workbookView xWindow="29400" yWindow="1080" windowWidth="26925" windowHeight="12855" xr2:uid="{C1BF1E84-95D8-49F7-8385-5ABE16272A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="38">
   <si>
     <t>2vCPU/10GB</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>6vCPU/30GB</t>
-  </si>
-  <si>
-    <t>2 VU's / 10 Warehouse's</t>
-  </si>
-  <si>
-    <t>4 VU's / 20 Warehouse's</t>
   </si>
   <si>
     <t>Azure NOPM</t>
@@ -63,9 +57,6 @@
   </si>
   <si>
     <t>6vCPU/24GB</t>
-  </si>
-  <si>
-    <t>8 VU's / 40 Warehouse's</t>
   </si>
   <si>
     <t>Google NOPM</t>
@@ -99,6 +90,66 @@
   </si>
   <si>
     <t>TPM 2vCPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>per hour</t>
+  </si>
+  <si>
+    <t>storage gb</t>
+  </si>
+  <si>
+    <t>core #</t>
+  </si>
+  <si>
+    <t>mem gb</t>
+  </si>
+  <si>
+    <t>core lic #</t>
+  </si>
+  <si>
+    <t>machine 1</t>
+  </si>
+  <si>
+    <t>PRICE/HOUR</t>
+  </si>
+  <si>
+    <t>machine 2</t>
+  </si>
+  <si>
+    <t>machine 3</t>
+  </si>
+  <si>
+    <t>Azure Transactions per hour</t>
+  </si>
+  <si>
+    <t>Google Transactions per hour</t>
+  </si>
+  <si>
+    <t>Azure Transactions / Dollar</t>
+  </si>
+  <si>
+    <t>Google Transactions / Dollar</t>
+  </si>
+  <si>
+    <t>8 VU's / 40 Warehouses</t>
+  </si>
+  <si>
+    <t>2vCPU</t>
+  </si>
+  <si>
+    <t>4vCPU</t>
+  </si>
+  <si>
+    <t>6vCPU</t>
+  </si>
+  <si>
+    <t>2 VU's / 10 Warehouses</t>
+  </si>
+  <si>
+    <t>4 VU's / 20 Warehouses</t>
   </si>
 </sst>
 </file>
@@ -226,7 +277,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -291,7 +342,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -356,7 +407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -776,13 +827,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -856,13 +907,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1151,6 +1202,2477 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t>ransactions / </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Dollar:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> Google</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 VU's / 10 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$144:$H$144</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2vCPU/8GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4vCPU/16GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6vCPU/24GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$145:$H$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1816694.160343121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1550752.8786536758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1040296.0133683457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BB0F-40BA-B0D6-96205722179D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 VU's / 20 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$144:$H$144</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2vCPU/8GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4vCPU/16GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6vCPU/24GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$146:$H$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2980732.4315407458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2836653.514775747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1968584.3876820244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB0F-40BA-B0D6-96205722179D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 VU's / 40 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$144:$H$144</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2vCPU/8GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4vCPU/16GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6vCPU/24GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$147:$H$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3544374.7937974264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4221257.750221435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3018677.4886607784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BB0F-40BA-B0D6-96205722179D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="571549696"/>
+        <c:axId val="571559296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="571549696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>SQL</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> Server Specifications</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571559296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571559296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Transactions per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> Dollar</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571549696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1" i="0" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Transactions / Dollar:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> Azure</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 VU's / 10 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$144:$M$144</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2vCPU/10GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4vCPU/20GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6vCPU/30GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$145:$M$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2587823.2758620693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1167817.6607069741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>976987.75360994332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-941C-4ABF-87D6-BF57F9F2749A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$146</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 VU's / 20 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$144:$M$144</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2vCPU/10GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4vCPU/20GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6vCPU/30GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$146:$M$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4207192.8879310349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2118793.5034802784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1843045.1471394624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-941C-4ABF-87D6-BF57F9F2749A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 VU's / 40 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$144:$M$144</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2vCPU/10GB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4vCPU/20GB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6vCPU/30GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$147:$M$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5141298.4913793104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3732496.2467585639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3032187.8998354962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-941C-4ABF-87D6-BF57F9F2749A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="571549696"/>
+        <c:axId val="571559296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="571549696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>SQL</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> Server Specifications</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571559296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571559296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Transactions per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> Dollar</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571549696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1" i="0" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transactions </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>/ Dollar: 2 vCPU's</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$172</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$173:$E$175</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 VU's / 10 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 VU's / 20 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 VU's / 40 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$173:$F$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2587823.2758620693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4207192.8879310349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5141298.4913793104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ED82-479E-ACFD-6ABA823F46C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$172</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$173:$E$175</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 VU's / 10 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 VU's / 20 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 VU's / 40 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$173:$G$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1816694.160343121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2980732.4315407458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3544374.7937974264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ED82-479E-ACFD-6ABA823F46C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="573981408"/>
+        <c:axId val="573971328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="573981408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> Setup</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573971328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573971328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Transactions per Dollar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573981408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1" i="0" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Transactions / Dollar: 4 vCPU's</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$172</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$173:$J$175</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 VU's / 10 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 VU's / 20 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 VU's / 40 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$173:$K$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1167817.6607069741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2118793.5034802784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3732496.2467585639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C1F-41F5-BDA6-54D316FCB739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$172</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$173:$J$175</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 VU's / 10 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 VU's / 20 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 VU's / 40 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$173:$L$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1550752.8786536758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2836653.514775747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4221257.750221435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9C1F-41F5-BDA6-54D316FCB739}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="573981408"/>
+        <c:axId val="573971328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="573981408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> Setup</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573971328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573971328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Transactions per Dollar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573981408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1" i="0" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Transactions / Dollar: 6 vCPU's</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$172</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$173:$P$175</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 VU's / 10 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 VU's / 20 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 VU's / 40 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$173:$Q$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>976987.75360994332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1843045.1471394624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3032187.8998354962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-007B-4B42-BFC4-7BDF7C62A901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$172</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$173:$P$175</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 VU's / 10 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 VU's / 20 Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 VU's / 40 Warehouses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$173:$R$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1040296.0133683457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1968584.3876820244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3018677.4886607784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-007B-4B42-BFC4-7BDF7C62A901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="573981408"/>
+        <c:axId val="573971328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="573981408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> Setup</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573971328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573971328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Transactions per Dollar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573981408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl/>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1" i="0" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1224,7 +3746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1289,7 +3811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1354,7 +3876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1740,7 +4262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1805,7 +4327,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1870,7 +4392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2257,7 +4779,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2322,7 +4844,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2387,7 +4909,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2800,13 +5322,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2880,13 +5402,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3272,13 +5794,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3352,13 +5874,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3739,13 +6261,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3819,13 +6341,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4213,13 +6735,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4293,13 +6815,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4694,13 +7216,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4774,13 +7296,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 VU's / 10 Warehouse's</c:v>
+                  <c:v>2 VU's / 10 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 VU's / 20 Warehouse's</c:v>
+                  <c:v>4 VU's / 20 Warehouses</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 VU's / 40 Warehouse's</c:v>
+                  <c:v>8 VU's / 40 Warehouses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5431,6 +7953,186 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F07DAE-5576-7C1F-918E-2FA8CA47D494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCA9E80-6F2D-4EEF-184E-8A94E1BA54D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5DA1D7-D843-80E8-7309-C73A529D3AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC51086-29B1-6514-3A6D-735A69956330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27B5E27-9A99-60BF-A2DC-01F335370D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5751,27 +8453,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DD3B07-1CE0-4DBF-ADC6-49313BA72133}">
-  <dimension ref="E2:R79"/>
+  <dimension ref="E2:R175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="D169" workbookViewId="0">
+      <selection activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="5:13" x14ac:dyDescent="0.25">
@@ -5785,18 +8489,18 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>13754</v>
@@ -5808,7 +8512,7 @@
         <v>15283</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>11719</v>
@@ -5822,7 +8526,7 @@
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>22382</v>
@@ -5834,7 +8538,7 @@
         <v>28801</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>19405</v>
@@ -5848,7 +8552,7 @@
     </row>
     <row r="6" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>27387</v>
@@ -5860,7 +8564,7 @@
         <v>47752</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <v>23086</v>
@@ -5874,10 +8578,10 @@
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.25">
@@ -5891,18 +8595,18 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
         <v>6</v>
-      </c>
-      <c r="L26" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>32020</v>
@@ -5914,7 +8618,7 @@
         <v>35634</v>
       </c>
       <c r="J27" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="K27">
         <v>27532</v>
@@ -5928,7 +8632,7 @@
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>52057</v>
@@ -5940,7 +8644,7 @@
         <v>67222</v>
       </c>
       <c r="J28" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K28">
         <v>45173</v>
@@ -5954,7 +8658,7 @@
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F29">
         <v>63615</v>
@@ -5966,7 +8670,7 @@
         <v>110594</v>
       </c>
       <c r="J29" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K29">
         <v>53715</v>
@@ -5980,38 +8684,38 @@
     </row>
     <row r="49" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="5:18" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F52">
         <v>15283</v>
@@ -6020,7 +8724,7 @@
         <v>15572</v>
       </c>
       <c r="J52" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="K52">
         <v>12294</v>
@@ -6029,7 +8733,7 @@
         <v>13784</v>
       </c>
       <c r="P52" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q52">
         <v>13754</v>
@@ -6040,7 +8744,7 @@
     </row>
     <row r="53" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F53">
         <v>28801</v>
@@ -6049,7 +8753,7 @@
         <v>29514</v>
       </c>
       <c r="J53" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K53">
         <v>22238</v>
@@ -6058,7 +8762,7 @@
         <v>25222</v>
       </c>
       <c r="P53" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="Q53">
         <v>22382</v>
@@ -6069,7 +8773,7 @@
     </row>
     <row r="54" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F54">
         <v>47752</v>
@@ -6078,7 +8782,7 @@
         <v>45242</v>
       </c>
       <c r="J54" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K54">
         <v>39175</v>
@@ -6087,7 +8791,7 @@
         <v>37643</v>
       </c>
       <c r="P54" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Q54">
         <v>27387</v>
@@ -6098,38 +8802,38 @@
     </row>
     <row r="74" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="5:18" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F77">
         <v>35634</v>
@@ -6138,7 +8842,7 @@
         <v>36315</v>
       </c>
       <c r="J77" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="K77">
         <v>28522</v>
@@ -6147,7 +8851,7 @@
         <v>32098</v>
       </c>
       <c r="P77" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q77">
         <v>32020</v>
@@ -6158,7 +8862,7 @@
     </row>
     <row r="78" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F78">
         <v>67222</v>
@@ -6167,7 +8871,7 @@
         <v>68720</v>
       </c>
       <c r="J78" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K78">
         <v>51748</v>
@@ -6176,7 +8880,7 @@
         <v>58714</v>
       </c>
       <c r="P78" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="Q78">
         <v>52057</v>
@@ -6187,7 +8891,7 @@
     </row>
     <row r="79" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F79">
         <v>110594</v>
@@ -6196,7 +8900,7 @@
         <v>105377</v>
       </c>
       <c r="J79" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K79">
         <v>91160</v>
@@ -6205,13 +8909,829 @@
         <v>87373</v>
       </c>
       <c r="P79" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Q79">
         <v>63615</v>
       </c>
       <c r="R79">
         <v>53715</v>
+      </c>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>5.6700000000000001E-4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100">
+        <v>1.94E-4</v>
+      </c>
+      <c r="K100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>0.13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f>SUM(E99:E102)</f>
+        <v>0.24646699999999999</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103">
+        <f>SUM(J99:J102)</f>
+        <v>0.36169400000000002</v>
+      </c>
+      <c r="K103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109">
+        <f>E99*E109</f>
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109">
+        <f>J109*J99</f>
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>100</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110">
+        <f>E100*E110</f>
+        <v>5.67E-2</v>
+      </c>
+      <c r="J110">
+        <v>100</v>
+      </c>
+      <c r="K110" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110">
+        <f>J110*J100</f>
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111">
+        <f>E101*E111</f>
+        <v>0.13439999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112">
+        <f>E102*E112</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="113" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <f>SUM(G109:G112)</f>
+        <v>0.9093</v>
+      </c>
+      <c r="H113" t="s">
+        <v>25</v>
+      </c>
+      <c r="L113">
+        <f>SUM(L109:L111)</f>
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="M113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116">
+        <f>E116*E99</f>
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="K116" t="s">
+        <v>21</v>
+      </c>
+      <c r="L116">
+        <f>J116*J99</f>
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="117" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>100</v>
+      </c>
+      <c r="F117" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117">
+        <f t="shared" ref="G117:G119" si="0">E117*E100</f>
+        <v>5.67E-2</v>
+      </c>
+      <c r="J117">
+        <v>100</v>
+      </c>
+      <c r="K117" t="s">
+        <v>20</v>
+      </c>
+      <c r="L117">
+        <f>J117*J100</f>
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="0"/>
+        <v>0.26879999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="120" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <f>SUM(G116:G119)</f>
+        <v>1.2419</v>
+      </c>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="L120">
+        <f>SUM(L116:L118)</f>
+        <v>1.4654</v>
+      </c>
+      <c r="M120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>27</v>
+      </c>
+      <c r="J122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123">
+        <f>E123*E99</f>
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="J123">
+        <v>6</v>
+      </c>
+      <c r="K123" t="s">
+        <v>21</v>
+      </c>
+      <c r="L123">
+        <f>J123*J99</f>
+        <v>2.169</v>
+      </c>
+    </row>
+    <row r="124" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>100</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124">
+        <f t="shared" ref="G124:G126" si="1">E124*E100</f>
+        <v>5.67E-2</v>
+      </c>
+      <c r="J124">
+        <v>100</v>
+      </c>
+      <c r="K124" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124">
+        <f>J124*J100</f>
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>0.4032</v>
+      </c>
+    </row>
+    <row r="126" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="127" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <f>SUM(G123:G126)</f>
+        <v>2.0945</v>
+      </c>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="L127">
+        <f>SUM(L123:L125)</f>
+        <v>2.1884000000000001</v>
+      </c>
+      <c r="M127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="J130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" t="s">
+        <v>6</v>
+      </c>
+      <c r="K131" t="s">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1</v>
+      </c>
+      <c r="M131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132">
+        <v>27532</v>
+      </c>
+      <c r="G132">
+        <v>32098</v>
+      </c>
+      <c r="H132">
+        <v>36315</v>
+      </c>
+      <c r="J132" t="s">
+        <v>36</v>
+      </c>
+      <c r="K132">
+        <v>32020</v>
+      </c>
+      <c r="L132">
+        <v>28522</v>
+      </c>
+      <c r="M132">
+        <v>35634</v>
+      </c>
+    </row>
+    <row r="133" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133">
+        <v>45173</v>
+      </c>
+      <c r="G133">
+        <v>58714</v>
+      </c>
+      <c r="H133">
+        <v>68720</v>
+      </c>
+      <c r="J133" t="s">
+        <v>37</v>
+      </c>
+      <c r="K133">
+        <v>52057</v>
+      </c>
+      <c r="L133">
+        <v>51748</v>
+      </c>
+      <c r="M133">
+        <v>67222</v>
+      </c>
+    </row>
+    <row r="134" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134">
+        <v>53715</v>
+      </c>
+      <c r="G134">
+        <v>87373</v>
+      </c>
+      <c r="H134">
+        <v>105377</v>
+      </c>
+      <c r="J134" t="s">
+        <v>32</v>
+      </c>
+      <c r="K134">
+        <v>63615</v>
+      </c>
+      <c r="L134">
+        <v>91160</v>
+      </c>
+      <c r="M134">
+        <v>110594</v>
+      </c>
+    </row>
+    <row r="137" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>29</v>
+      </c>
+      <c r="J137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" t="s">
+        <v>6</v>
+      </c>
+      <c r="K138" t="s">
+        <v>0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1</v>
+      </c>
+      <c r="M138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139">
+        <f>60*F132</f>
+        <v>1651920</v>
+      </c>
+      <c r="G139">
+        <f t="shared" ref="G139:H139" si="2">60*G132</f>
+        <v>1925880</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="2"/>
+        <v>2178900</v>
+      </c>
+      <c r="J139" t="s">
+        <v>36</v>
+      </c>
+      <c r="K139">
+        <f>K132*60</f>
+        <v>1921200</v>
+      </c>
+      <c r="L139">
+        <f t="shared" ref="L139:M139" si="3">L132*60</f>
+        <v>1711320</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="3"/>
+        <v>2138040</v>
+      </c>
+    </row>
+    <row r="140" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>37</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ref="F140:H140" si="4">60*F133</f>
+        <v>2710380</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="4"/>
+        <v>3522840</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="4"/>
+        <v>4123200</v>
+      </c>
+      <c r="J140" t="s">
+        <v>37</v>
+      </c>
+      <c r="K140">
+        <f>K133*60</f>
+        <v>3123420</v>
+      </c>
+      <c r="L140">
+        <f>L133*60</f>
+        <v>3104880</v>
+      </c>
+      <c r="M140">
+        <f t="shared" ref="K140:M140" si="5">M133*60</f>
+        <v>4033320</v>
+      </c>
+    </row>
+    <row r="141" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ref="F141:H141" si="6">60*F134</f>
+        <v>3222900</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="6"/>
+        <v>5242380</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="6"/>
+        <v>6322620</v>
+      </c>
+      <c r="J141" t="s">
+        <v>32</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ref="K141:M141" si="7">K134*60</f>
+        <v>3816900</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="7"/>
+        <v>5469600</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="7"/>
+        <v>6635640</v>
+      </c>
+    </row>
+    <row r="143" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>31</v>
+      </c>
+      <c r="J143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" t="s">
+        <v>6</v>
+      </c>
+      <c r="K144" t="s">
+        <v>0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>1</v>
+      </c>
+      <c r="M144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145">
+        <f>F139/G113</f>
+        <v>1816694.160343121</v>
+      </c>
+      <c r="G145">
+        <f>G139/G120</f>
+        <v>1550752.8786536758</v>
+      </c>
+      <c r="H145">
+        <f>H139/G127</f>
+        <v>1040296.0133683457</v>
+      </c>
+      <c r="J145" t="s">
+        <v>36</v>
+      </c>
+      <c r="K145">
+        <f>K139/L113</f>
+        <v>2587823.2758620693</v>
+      </c>
+      <c r="L145">
+        <f>L139/L120</f>
+        <v>1167817.6607069741</v>
+      </c>
+      <c r="M145">
+        <f>M139/L127</f>
+        <v>976987.75360994332</v>
+      </c>
+    </row>
+    <row r="146" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>37</v>
+      </c>
+      <c r="F146">
+        <f>F140/G113</f>
+        <v>2980732.4315407458</v>
+      </c>
+      <c r="G146">
+        <f>G140/G120</f>
+        <v>2836653.514775747</v>
+      </c>
+      <c r="H146">
+        <f>H140/G127</f>
+        <v>1968584.3876820244</v>
+      </c>
+      <c r="J146" t="s">
+        <v>37</v>
+      </c>
+      <c r="K146">
+        <f>K140/L113</f>
+        <v>4207192.8879310349</v>
+      </c>
+      <c r="L146">
+        <f>L140/L120</f>
+        <v>2118793.5034802784</v>
+      </c>
+      <c r="M146">
+        <f>M140/L127</f>
+        <v>1843045.1471394624</v>
+      </c>
+    </row>
+    <row r="147" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147">
+        <f>F141/G113</f>
+        <v>3544374.7937974264</v>
+      </c>
+      <c r="G147">
+        <f>G141/G120</f>
+        <v>4221257.750221435</v>
+      </c>
+      <c r="H147">
+        <f>H141/G127</f>
+        <v>3018677.4886607784</v>
+      </c>
+      <c r="J147" t="s">
+        <v>32</v>
+      </c>
+      <c r="K147">
+        <f>K141/L113</f>
+        <v>5141298.4913793104</v>
+      </c>
+      <c r="L147">
+        <f>L141/L120</f>
+        <v>3732496.2467585639</v>
+      </c>
+      <c r="M147">
+        <f>M141/L127</f>
+        <v>3032187.8998354962</v>
+      </c>
+    </row>
+    <row r="171" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>33</v>
+      </c>
+      <c r="J171" t="s">
+        <v>34</v>
+      </c>
+      <c r="P171" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>10</v>
+      </c>
+      <c r="R172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173">
+        <v>2587823.2758620693</v>
+      </c>
+      <c r="G173">
+        <v>1816694.160343121</v>
+      </c>
+      <c r="J173" t="s">
+        <v>36</v>
+      </c>
+      <c r="K173">
+        <v>1167817.6607069741</v>
+      </c>
+      <c r="L173">
+        <v>1550752.8786536758</v>
+      </c>
+      <c r="P173" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q173">
+        <v>976987.75360994332</v>
+      </c>
+      <c r="R173">
+        <v>1040296.0133683457</v>
+      </c>
+    </row>
+    <row r="174" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174">
+        <v>4207192.8879310349</v>
+      </c>
+      <c r="G174">
+        <v>2980732.4315407458</v>
+      </c>
+      <c r="J174" t="s">
+        <v>37</v>
+      </c>
+      <c r="K174">
+        <v>2118793.5034802784</v>
+      </c>
+      <c r="L174">
+        <v>2836653.514775747</v>
+      </c>
+      <c r="P174" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q174">
+        <v>1843045.1471394624</v>
+      </c>
+      <c r="R174">
+        <v>1968584.3876820244</v>
+      </c>
+    </row>
+    <row r="175" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175">
+        <v>5141298.4913793104</v>
+      </c>
+      <c r="G175">
+        <v>3544374.7937974264</v>
+      </c>
+      <c r="J175" t="s">
+        <v>32</v>
+      </c>
+      <c r="K175">
+        <v>3732496.2467585639</v>
+      </c>
+      <c r="L175">
+        <v>4221257.750221435</v>
+      </c>
+      <c r="P175" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q175">
+        <v>3032187.8998354962</v>
+      </c>
+      <c r="R175">
+        <v>3018677.4886607784</v>
       </c>
     </row>
   </sheetData>
